--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>854176.7341044403</v>
+        <v>850744.959535692</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982515</v>
+        <v>284149.5140982519</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8315080.369423969</v>
+        <v>8315080.36942397</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>65.5055949800245</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.737196836189143</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>132.8567545933014</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>59.70004712226958</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="D5" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F5" t="n">
+      <c r="Y5" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.11186662957332</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>95.07440851494208</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.6773952840984226</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>320.9596570282562</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>11.39108932486054</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496966</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -1345,7 +1345,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903419</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>311.4936872159407</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1503,7 +1503,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888692</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>155.319730604467</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>99.34508049624301</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1625,7 +1625,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>169.5880678383153</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>38.32326053493003</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.319730604467</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>99.34508049624304</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>194.1966723868843</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>127.8827433377329</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>140.1997601007682</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>195.974202382575</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2378,10 +2378,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>316.5789886999469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>11.67884460201125</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>352.2716313631561</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>65.8579472773587</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>91.82580793753503</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>157.0044783406138</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>72.76769201460587</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>254.2816647828048</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2886,7 +2886,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2925,7 +2925,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2992,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.68001987778689</v>
       </c>
       <c r="S31" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>295.2947340238487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>141.5531628498604</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>77.15919157187223</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3269,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>48.43260517378882</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.821608734732921</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>90.02575748609793</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.0523131718581</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>64.52985014474528</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3597,10 +3597,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.2982592812052</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>396.6749956049798</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>252.707716057337</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3901,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>58.4197124582186</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>119.5593957283836</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4022,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4071,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4189,16 +4189,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="C2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="D2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="E2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="F2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="V2" t="n">
-        <v>818.7624959030018</v>
+        <v>828.0278728906073</v>
       </c>
       <c r="W2" t="n">
-        <v>552.8614515073789</v>
+        <v>562.1268284949842</v>
       </c>
       <c r="X2" t="n">
-        <v>286.9604071117561</v>
+        <v>495.9595608383938</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.7657853559551</v>
+        <v>532.4503288997741</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7657853559551</v>
+        <v>530.6955846207952</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8313756947039</v>
+        <v>381.761174959544</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399123</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="M3" t="n">
-        <v>531.9454581020244</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="N3" t="n">
-        <v>792.5550717141743</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806666</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="U3" t="n">
-        <v>918.7693937932306</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="V3" t="n">
-        <v>683.617285561488</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="W3" t="n">
-        <v>683.617285561488</v>
+        <v>700.6656659198422</v>
       </c>
       <c r="X3" t="n">
-        <v>475.7657853559551</v>
+        <v>700.6656659198422</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.7657853559551</v>
+        <v>700.6656659198422</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551287</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.68360465423046</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C5" t="n">
-        <v>825.6800813726991</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D5" t="n">
-        <v>579.9844679696338</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E5" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F5" t="n">
         <v>22.09252109618843</v>
@@ -4565,7 +4565,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K5" t="n">
         <v>142.8373253438683</v>
@@ -4580,7 +4580,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4601,16 +4601,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="W5" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X5" t="n">
-        <v>1104.626054809422</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1104.626054809422</v>
+        <v>267.7881344992538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199.6247908789907</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C6" t="n">
-        <v>199.6247908789907</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D6" t="n">
-        <v>199.6247908789907</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E6" t="n">
-        <v>40.38733587353522</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F6" t="n">
-        <v>40.38733587353522</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G6" t="n">
         <v>22.09252109618843</v>
@@ -4644,13 +4644,13 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K6" t="n">
-        <v>159.4923828364511</v>
+        <v>114.7965710887686</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6478494291521</v>
+        <v>360.9520376814696</v>
       </c>
       <c r="M6" t="n">
         <v>634.3469862468014</v>
@@ -4671,25 +4671,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.591298733723</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.591298733723</v>
       </c>
       <c r="U6" t="n">
-        <v>1104.626054809422</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="V6" t="n">
-        <v>869.473946577679</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="W6" t="n">
-        <v>615.2365898494775</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="X6" t="n">
-        <v>407.3850896439446</v>
+        <v>572.5211861623375</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6247908789907</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="H7" t="n">
         <v>22.09252109618843</v>
@@ -4747,28 +4747,28 @@
         <v>198.9927170031358</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="U7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.77675875689391</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.1098286224644</v>
+        <v>378.1446555862798</v>
       </c>
       <c r="C8" t="n">
-        <v>546.1098286224644</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D8" t="n">
-        <v>546.1098286224644</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E8" t="n">
-        <v>546.1098286224644</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F8" t="n">
-        <v>546.1098286224644</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>764.7444956504016</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1219.679656148628</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C11" t="n">
-        <v>850.7171392082163</v>
+        <v>1941.58673401369</v>
       </c>
       <c r="D11" t="n">
-        <v>850.7171392082163</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>1197.532782808695</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>786.5468780190874</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>368.5830699172743</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224079</v>
@@ -5054,7 +5054,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
@@ -5075,16 +5075,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V11" t="n">
-        <v>2369.884586449642</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W11" t="n">
-        <v>2369.884586449642</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X11" t="n">
-        <v>1996.418828188562</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y11" t="n">
-        <v>1606.27949621275</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="C13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="D13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="E13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="F13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="G13" t="n">
-        <v>235.9284171545819</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L13" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="W13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.9284171545819</v>
+        <v>550.5654064942406</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.353113282533</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C14" t="n">
-        <v>1568.353113282533</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D14" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533133</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2252.184655896217</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V14" t="n">
-        <v>1921.121768552647</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>1568.353113282533</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X14" t="n">
-        <v>1568.353113282533</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y14" t="n">
-        <v>1568.353113282533</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,22 +5355,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641983</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598703</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5394,10 +5394,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="C16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="D16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="E16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="F16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="G16" t="n">
-        <v>235.9284171545818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5443,43 +5443,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="W16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="Y16" t="n">
-        <v>235.9284171545818</v>
+        <v>550.5654064942406</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1251.855211652197</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
         <v>882.8926947117852</v>
@@ -5504,19 +5504,19 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.59438369213</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2028.59438369213</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1638.455051716319</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T19" t="n">
-        <v>500.8207968750362</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>500.8207968750362</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>246.1363086691493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>601.0812781421098</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>601.0812781421098</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>601.0812781421098</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>183.1174700402967</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>183.1174700402967</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5780,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5832,40 +5832,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>2373.884706894277</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>108.9687959810045</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>2555.533171724517</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>797.9969330253592</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C23" t="n">
-        <v>797.9969330253592</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2499.195351237844</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2245.433565875936</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>1914.370678532365</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1561.602023262251</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X23" t="n">
-        <v>1188.136265001171</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y23" t="n">
-        <v>797.9969330253592</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2482.860667836386</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2255.552480504988</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2243.755667775683</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>2243.755667775683</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2243.755667775683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1394.624369323446</v>
+        <v>932.2014054355411</v>
       </c>
       <c r="C26" t="n">
-        <v>1394.624369323446</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="D26" t="n">
-        <v>1036.358670716696</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>563.2388884951295</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
         <v>207.4089578252748</v>
@@ -6251,25 +6251,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2630.625911950183</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2411.991244922246</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2158.229459560338</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2158.229459560338</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W26" t="n">
-        <v>2158.229459560338</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X26" t="n">
-        <v>1784.763701299258</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y26" t="n">
-        <v>1394.624369323446</v>
+        <v>932.2014054355411</v>
       </c>
     </row>
     <row r="27">
@@ -6309,10 +6309,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6327,7 +6327,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073964</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D28" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E28" t="n">
-        <v>359.423311480511</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F28" t="n">
-        <v>212.5333639826006</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6418,16 +6418,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1293.182375355301</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C29" t="n">
-        <v>924.2198584148889</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D29" t="n">
-        <v>924.2198584148889</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E29" t="n">
-        <v>538.4316058166446</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>127.445701027037</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.387305656314</v>
+        <v>1967.902472181099</v>
       </c>
       <c r="W29" t="n">
-        <v>2443.387305656314</v>
+        <v>1615.133816910985</v>
       </c>
       <c r="X29" t="n">
-        <v>2069.921547395234</v>
+        <v>1241.668058649906</v>
       </c>
       <c r="Y29" t="n">
-        <v>1679.782215419422</v>
+        <v>851.5287266740938</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="S31" t="n">
-        <v>2539.444886308983</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="T31" t="n">
-        <v>2312.136698977585</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>656.6110348804735</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.146815977588</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C32" t="n">
-        <v>770.1842990371763</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D32" t="n">
-        <v>770.1842990371763</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>770.1842990371763</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6698,19 +6698,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2554.166098240586</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2300.404312878677</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="33">
@@ -6759,19 +6759,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6780,22 +6780,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
         <v>2022.963088632153</v>
@@ -6880,28 +6880,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2549.002432452407</v>
+        <v>2567.064746875</v>
       </c>
       <c r="T34" t="n">
-        <v>2321.694245121008</v>
+        <v>2567.064746875</v>
       </c>
       <c r="U34" t="n">
-        <v>2321.694245121008</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>2321.694245121008</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>2321.694245121008</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>2321.694245121008</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>2100.901665977478</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1226.657559460833</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C35" t="n">
-        <v>857.6950425204218</v>
+        <v>846.9187564332267</v>
       </c>
       <c r="D35" t="n">
-        <v>857.6950425204218</v>
+        <v>488.6530578264762</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>102.8648052282319</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6968,19 +6968,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2687.228274114452</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2356.165386770881</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W35" t="n">
-        <v>2003.396731500767</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X35" t="n">
-        <v>2003.396731500767</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y35" t="n">
-        <v>1613.257399524955</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C37" t="n">
-        <v>438.9553738610022</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D37" t="n">
-        <v>438.9553738610022</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E37" t="n">
-        <v>438.9553738610022</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9553738610022</v>
+        <v>2083.293227597676</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.9553738610022</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1258.85078887676</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C38" t="n">
-        <v>1258.85078887676</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D38" t="n">
-        <v>1258.85078887676</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E38" t="n">
-        <v>873.0625362785156</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F38" t="n">
-        <v>462.076631488908</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2631.967424205348</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2378.20563884344</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>2378.20563884344</v>
       </c>
       <c r="W38" t="n">
-        <v>2035.589960916693</v>
+        <v>2025.436983573326</v>
       </c>
       <c r="X38" t="n">
-        <v>2035.589960916693</v>
+        <v>1651.971225312246</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.450628940882</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>380.6911546495019</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>380.6911546495019</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>380.6911546495019</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="V40" t="n">
-        <v>380.6911546495019</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="W40" t="n">
-        <v>380.6911546495019</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X40" t="n">
-        <v>380.6911546495019</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1865.381229508783</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>1496.418712568371</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>1138.15301396162</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>1138.15301396162</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F41" t="n">
-        <v>727.1671091720129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>309.2033010701998</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7430,31 +7430,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2251.981069572904</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>2398.885793040071</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>2250.972699457678</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S43" t="n">
-        <v>570.4247794971948</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T43" t="n">
-        <v>343.1165921657965</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>2549.002432452407</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>532.9757468194216</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>532.9757468194216</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>174.7100482126711</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>174.7100482126711</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>174.7100482126711</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>174.7100482126711</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>174.7100482126711</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>919.5755868835433</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7737,37 +7737,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>2407.97548067279</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005475</v>
+        <v>2312.380258669113</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0273259635869</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>264.057275375142</v>
+        <v>129.591740357718</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808119</v>
+        <v>326.1643666240951</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>212.9476288664378</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>354.0566759388317</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
         <v>387.9064735273547</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951785</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951785</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720728</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719071</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22562,13 +22562,13 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921148</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>95.88867496550694</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>304.2255056984445</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>170.9713021521266</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22635,16 +22635,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -22680,16 +22680,16 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>93.08137087691583</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>8.114410708933576</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
-        <v>115.7273739144268</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>139.4951843944459</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>111.4443843516483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.1619485273195</v>
@@ -22841,16 +22841,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="6">
@@ -22860,22 +22860,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>119.156321784166</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
         <v>111.5079271034444</v>
@@ -22911,19 +22911,19 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>75.20956410639106</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22957,7 +22957,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>160.9882888137788</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
@@ -22987,7 +22987,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -22996,7 +22996,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>44.31323474275138</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>402.3930806959344</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618413</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>12.42908554841642</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,16 +23315,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>3.760398947239423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458389</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>125.6900249618413</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23498,13 +23498,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>81.63609966997404</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>347.9146781211235</v>
       </c>
     </row>
     <row r="15">
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458389</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>125.6900249618412</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,19 +23783,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>155.0442963305287</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>35.43826180874015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>24.04857290712836</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>78.38489325132662</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>20.47411797508281</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24266,10 +24266,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>53.1521119785221</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>274.6030296399665</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,19 +24443,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>54.60441437855536</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24491,7 +24491,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>108.5577655316128</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>54.60815470903414</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>10.30532391843713</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24658,7 +24658,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>341.0164780061891</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24731,16 +24731,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>73.47059368733008</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>104.985172102371</v>
       </c>
       <c r="S31" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>111.5813117178628</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>74.89515750779736</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25093,7 +25093,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>57.806430220466</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25120,28 +25120,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822903</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25157,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>358.4434405679226</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,16 +25208,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>241.4025587735564</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,28 +25312,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.28404477295298</v>
+        <v>107.5829646831827</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25366,7 +25366,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>9.7318568489369</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>151.9184702129125</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25591,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>14.84727966881371</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684547</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>10.20105013673168</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>71.21505670702015</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25789,25 +25789,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>87.00133556471265</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>32.37192051647766</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,16 +26077,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.4983735401882</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>96.92615468724696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467445.7869376</v>
+        <v>467445.7869376002</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477458.0775964576</v>
+        <v>477458.0775964578</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115739</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264978</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="C2" t="n">
         <v>159463.6497950859</v>
       </c>
       <c r="D2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="E2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="G2" t="n">
         <v>260237.3490141817</v>
@@ -26338,19 +26338,19 @@
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="N2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="N2" t="n">
-        <v>260237.3490141817</v>
-      </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141816</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749499</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.6875843893</v>
+        <v>15106.68758438899</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536881</v>
+        <v>417183.6221536882</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124982</v>
+        <v>68875.69873124993</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475282</v>
+        <v>3323.773824475238</v>
       </c>
       <c r="L3" t="n">
         <v>100763.3119392804</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16565.16787800056</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="C4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966325</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,34 +26467,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
         <v>51181.37951678014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="F5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26503,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21087.89463328562</v>
+        <v>-21480.73983836258</v>
       </c>
       <c r="C6" t="n">
-        <v>76577.13949304192</v>
+        <v>76183.73375425088</v>
       </c>
       <c r="D6" t="n">
-        <v>-257619.0642631119</v>
+        <v>-258034.2787725792</v>
       </c>
       <c r="E6" t="n">
-        <v>193192.1578905761</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="F6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="G6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.943381109</v>
       </c>
       <c r="H6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="I6" t="n">
-        <v>193192.1578905763</v>
+        <v>192776.943381109</v>
       </c>
       <c r="J6" t="n">
-        <v>124316.4591593263</v>
+        <v>123901.244649859</v>
       </c>
       <c r="K6" t="n">
-        <v>189868.3840661008</v>
+        <v>189453.1695566337</v>
       </c>
       <c r="L6" t="n">
-        <v>92428.84595129585</v>
+        <v>92013.63144182853</v>
       </c>
       <c r="M6" t="n">
-        <v>193192.1578905761</v>
+        <v>192776.943381109</v>
       </c>
       <c r="N6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="O6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="P6" t="n">
-        <v>193192.1578905761</v>
+        <v>192776.9433811089</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912529</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233591</v>
+        <v>12.00787803233568</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>342.7224034979616</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068883</v>
+        <v>12.91447975068854</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522003</v>
+        <v>398.1307590522004</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516665</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068883</v>
+        <v>12.91447975068866</v>
       </c>
       <c r="L4" t="n">
         <v>398.1307590522003</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068883</v>
+        <v>12.91447975068854</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522003</v>
+        <v>398.1307590522004</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,10 +31753,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31765,34 +31765,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31929,28 +31929,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,10 +31990,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32002,34 +32002,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32166,28 +32166,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M3" t="n">
-        <v>134.4655350174239</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>207.6969052949499</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315784</v>
+        <v>87.27013098543763</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>231.0092291087367</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N6" t="n">
         <v>276.1565137023554</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,22 +35413,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181301</v>
       </c>
       <c r="K14" t="n">
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624584</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35817,10 +35817,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36452,7 +36452,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36677,13 +36677,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,13 +37792,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>888454.9608210446</v>
+        <v>826168.9201626899</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624704</v>
+        <v>189902.9539564201</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7992412.720658096</v>
+        <v>8897968.84867017</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>125.7482726725102</v>
       </c>
       <c r="G2" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>121.8430658505937</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>155.9452381968312</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>147.8407147070171</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>60.89786257166604</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>86.85904583823137</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>44.19077295368341</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>227.7664834517763</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516672</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>210.2285954404784</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516672</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>113.2472412852641</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>113.8663651854593</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>87.0830609582473</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>243.9223155524617</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>321.7064610691122</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>51.33585661328306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>30.95117253761801</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.5310119231965</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>8.389005322401673</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33.77936158463009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>262.8965144854966</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.60282600224278</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>17.46627909926775</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>117.5864309727544</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>199.3355115125534</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>23.35455705266789</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>208.0055861732533</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>288.5066892014557</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.553842565068821</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>313.5961800444755</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>234.873980137243</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>101.717706569126</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>132.997194893274</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>57.4290852596889</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>351.2391879744742</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>334.5817096732204</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>236.0499720120679</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>102.575648756399</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>253.8139140873651</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>144.2406440115529</v>
       </c>
       <c r="V41" t="n">
-        <v>89.2590608182072</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>118.9283458032787</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>270.7706607858352</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>261.753697956237</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.889865504349</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="D2" t="n">
-        <v>348.0024326625565</v>
+        <v>566.7496916635685</v>
       </c>
       <c r="E2" t="n">
-        <v>348.0024326625565</v>
+        <v>180.9614390653242</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>348.0024326625565</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.3549469997013</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>518.4217842253022</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>310.5702840197694</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>310.5702840197694</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>391.7296393534893</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>391.7296393534893</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>391.7296393534893</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>391.7296393534893</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>391.7296393534893</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>391.7296393534893</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>242.3955840938761</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>617.0136766887008</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>391.7296393534893</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>391.7296393534893</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>391.7296393534893</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>391.7296393534893</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>391.7296393534893</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>391.7296393534893</v>
+        <v>1521.073833303755</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>271.5799073018547</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>271.5799073018547</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>271.5799073018547</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>271.5799073018547</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>271.5799073018547</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>132.8570639765196</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>251.2267644261524</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>493.3438694636834</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>916.7379369479372</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>714.5835157391302</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>714.5835157391302</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>479.4314075073876</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>479.4314075073876</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>271.5799073018547</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>271.5799073018547</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.3941021357749</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C7" t="n">
-        <v>113.3941021357749</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="D7" t="n">
-        <v>113.3941021357749</v>
+        <v>141.6793917579719</v>
       </c>
       <c r="E7" t="n">
-        <v>113.3941021357749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3941021357749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>113.3941021357749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>113.3941021357749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>113.3941021357749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>113.3941021357749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>113.3941021357749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>113.3941021357749</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>113.3941021357749</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>113.3941021357749</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.3941021357749</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.0670914110452</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>787.0670914110452</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>556.9999364092509</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136275</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>291.0988920136275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800408</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806669</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806669</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806669</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806669</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806669</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110452</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354.7498470027159</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>180.2968177215889</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>180.2968177215889</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613337</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613337</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613337</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992137</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>154.3302328992137</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>339.9440834239272</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360777</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285699</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806669</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806669</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806669</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806669</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806669</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806669</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>938.5769829932706</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>730.7254827877377</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>522.9651840227839</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706541</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706541</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706541</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706541</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706541</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706541</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706541</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1435.441956461044</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C11" t="n">
-        <v>1066.479439520632</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D11" t="n">
-        <v>708.213740913882</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>322.4254883156378</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>322.4254883156378</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4254883156378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2609.186403181609</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="U11" t="n">
-        <v>2212.181128500978</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="V11" t="n">
-        <v>2212.181128500978</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="W11" t="n">
-        <v>2212.181128500978</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="X11" t="n">
-        <v>2212.181128500978</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y11" t="n">
-        <v>1822.041796525166</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
         <v>309.190302261463</v>
@@ -5132,16 +5132,16 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610023</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>149.5382038240417</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>711.3150639356909</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>300.3291591460833</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>2317.164380266784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266784</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5360,46 +5360,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5442,37 +5442,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253592</v>
+        <v>1293.012793938013</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036446</v>
+        <v>934.7470953312629</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036446</v>
+        <v>523.7611905416554</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>105.7973824398423</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>105.7973824398423</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2610.856590904657</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>2279.793703561087</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W17" t="n">
-        <v>1927.025048290973</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X17" t="n">
-        <v>1553.559290029893</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961344</v>
@@ -5591,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>257.0633493392342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C19" t="n">
-        <v>257.0633493392342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5712,13 +5712,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.7118141694738</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1979.48636361053</v>
+        <v>1464.687040303175</v>
       </c>
       <c r="C20" t="n">
-        <v>1610.523846670118</v>
+        <v>1095.724523362763</v>
       </c>
       <c r="D20" t="n">
-        <v>1252.258148063368</v>
+        <v>737.4588247560125</v>
       </c>
       <c r="E20" t="n">
-        <v>866.4698954651235</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>455.4839906755159</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>455.4839906755159</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>128.2892707115188</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W20" t="n">
-        <v>2366.086203674652</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X20" t="n">
-        <v>2366.086203674652</v>
+        <v>1851.286880367296</v>
       </c>
       <c r="Y20" t="n">
-        <v>2366.086203674652</v>
+        <v>1851.286880367296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2349.71126146129</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C22" t="n">
-        <v>2349.71126146129</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D22" t="n">
-        <v>2349.71126146129</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E22" t="n">
-        <v>2349.71126146129</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F22" t="n">
-        <v>2349.71126146129</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2531.35972629153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2531.35972629153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2531.35972629153</v>
+        <v>688.885551920185</v>
       </c>
       <c r="V22" t="n">
-        <v>2531.35972629153</v>
+        <v>688.885551920185</v>
       </c>
       <c r="W22" t="n">
-        <v>2531.35972629153</v>
+        <v>688.885551920185</v>
       </c>
       <c r="X22" t="n">
-        <v>2531.35972629153</v>
+        <v>688.885551920185</v>
       </c>
       <c r="Y22" t="n">
-        <v>2531.35972629153</v>
+        <v>688.885551920185</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C23" t="n">
-        <v>940.7524019189439</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D23" t="n">
-        <v>582.4867033121934</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>582.4867033121934</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>582.4867033121934</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6074,7 +6074,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6089,28 +6089,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>632.5337622027571</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>343.360151857325</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1580.775345511217</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="C26" t="n">
-        <v>1211.812828570805</v>
+        <v>622.3153331273709</v>
       </c>
       <c r="D26" t="n">
-        <v>1211.812828570805</v>
+        <v>264.0496345206204</v>
       </c>
       <c r="E26" t="n">
-        <v>826.0245759725606</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>826.0245759725606</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>991.2778500677825</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>991.2778500677825</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>58.54282279518145</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>58.54282279518145</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>58.54282279518145</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U28" t="n">
-        <v>2407.975480672791</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>58.54282279518145</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>58.54282279518145</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1525.74665604171</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.74665604171</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D29" t="n">
-        <v>1167.480957434959</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E29" t="n">
-        <v>781.6927048367149</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>370.7068000471074</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>1915.885988017521</v>
+        <v>1248.645961962111</v>
       </c>
       <c r="Y29" t="n">
-        <v>1525.74665604171</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2476.356511874692</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C31" t="n">
-        <v>2307.420328946786</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D31" t="n">
-        <v>2157.30368953445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E31" t="n">
-        <v>2157.30368953445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>2157.30368953445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2476.356511874692</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>529.9159669521664</v>
       </c>
       <c r="D32" t="n">
-        <v>819.715945170047</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>819.715945170047</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>408.7300403804394</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2601.553869014546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2601.553869014546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2601.553869014546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2312.380258669114</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1210.087414675782</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1210.087414675782</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D35" t="n">
-        <v>1210.087414675782</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>802.8902095122148</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>391.9043047226073</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>1600.226746651594</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>1600.226746651594</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1210.087414675782</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1108.365917331524</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C38" t="n">
-        <v>739.4034003911122</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>381.1377017843616</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1364.743608328862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1108.365917331524</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y38" t="n">
-        <v>1108.365917331524</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2551.451470804533</v>
       </c>
       <c r="V41" t="n">
-        <v>2606.988423525084</v>
+        <v>2220.388583460962</v>
       </c>
       <c r="W41" t="n">
-        <v>2254.219768254969</v>
+        <v>1867.619928190848</v>
       </c>
       <c r="X41" t="n">
-        <v>1880.75400999389</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y41" t="n">
-        <v>1880.75400999389</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>331.8209966133684</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>174.0726240458985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>500.820796875036</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.823100673951</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C44" t="n">
-        <v>1215.860583733539</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D44" t="n">
-        <v>857.5948851267888</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E44" t="n">
-        <v>471.8066325285445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F44" t="n">
-        <v>471.8066325285445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>471.8066325285445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X44" t="n">
-        <v>1584.823100673951</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y44" t="n">
-        <v>1584.823100673951</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>188.5314933775168</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429918</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>317.0804782614688</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808122</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868108</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627889</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.0442842992665</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>281.1277730692013</v>
       </c>
       <c r="G2" t="n">
-        <v>330.8829497359738</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50.86543313772204</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>226.7886034666494</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>191.4828313349594</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22840,16 +22840,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>110.6385273118616</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>59.5749168083378</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>183.726509662142</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>126.9165581689066</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205946</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521642</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>117.5236630296565</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>138.4477418756555</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.114410708933292</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366963</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.0564075788978</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.33265185072423</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.9453835684544</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>169.8618544683333</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>6.045797401022753</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>100.5954596315782</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>220.2729949706713</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>171.4429748595356</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>114.8361114335823</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>119.0338555867652</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>78.32849024261847</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923383</v>
@@ -24174,16 +24174,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6792598507512</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>247.430876278591</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>237.0966106479285</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>214.4486585082416</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24414,13 +24414,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>262.9273171893099</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>173.9247838990084</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>125.2774808193393</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>141.8801200815003</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,22 +24651,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>100.1879899763195</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,19 +24733,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>134.857120541226</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>44.71625607744319</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31260736577693</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>297.253956360994</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>62.54498204632074</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>52.02592219651808</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>218.0915804983418</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>79.20246034757463</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>113.1909967053452</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>183.7062254855788</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,25 +25441,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>115.9171865911039</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25602,16 +25602,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>106.9835234967364</v>
       </c>
       <c r="V41" t="n">
-        <v>238.4931976519277</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>16.03727598905951</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25836,19 +25836,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>111.9631808776454</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>62.16907480812017</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>195.2556734456699</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401878</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448752.9057247414</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451773.1829701429</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467445.7869376004</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="C2" t="n">
-        <v>150588.1755146548</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="D2" t="n">
-        <v>156006.1355264979</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="E2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="F2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141815</v>
       </c>
       <c r="G2" t="n">
         <v>260237.3490141816</v>
@@ -26337,10 +26337,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="K2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141816</v>
@@ -26352,7 +26352,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835739</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847505</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>16922.92270143587</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26493,7 +26493,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26502,10 +26502,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579.215341908923</v>
+        <v>-436886.9495792548</v>
       </c>
       <c r="C6" t="n">
-        <v>80596.32350583532</v>
+        <v>153080.9296352896</v>
       </c>
       <c r="D6" t="n">
-        <v>66548.72807905133</v>
+        <v>153080.9296352897</v>
       </c>
       <c r="E6" t="n">
-        <v>-214943.494302465</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="F6" t="n">
-        <v>192776.9433811088</v>
+        <v>186708.5296352898</v>
       </c>
       <c r="G6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="H6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="I6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="J6" t="n">
-        <v>129717.0007820027</v>
+        <v>10285.31044269672</v>
       </c>
       <c r="K6" t="n">
-        <v>191863.6875786517</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="L6" t="n">
-        <v>188049.3802622614</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="M6" t="n">
-        <v>90342.82569047388</v>
+        <v>186708.5296352896</v>
       </c>
       <c r="N6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352896</v>
       </c>
       <c r="O6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="P6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352898</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354754</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302968</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028885</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028885</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052477</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028885</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418822</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>59.2450303102814</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>134.61704058897</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>187.488737903751</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516672</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031301</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307155</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36928,7 +36928,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328939</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,10 +37630,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826168.9201626899</v>
+        <v>880943.4705758262</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>332906.6712380802</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>10850698.87543053</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8897968.84867017</v>
+        <v>8019759.734945853</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>215.4108546636942</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>125.7482726725102</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>40.02188483835985</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964033</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.9452381968312</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20.85462475186312</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>138.447490590751</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>86.85904583823137</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>172.558048759713</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>210.2285954404784</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231963</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>393.3927785723433</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.0830609582473</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9223155524617</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>268.3385873887669</v>
       </c>
     </row>
     <row r="15">
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.33585661328306</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>163.6314488617226</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.389005322401673</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>160.2491677474088</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>58.10506447000341</v>
       </c>
       <c r="E20" t="n">
-        <v>262.8965144854966</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2140,16 +2140,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>38.85099796338674</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>117.5864309727544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>207.6620270759257</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>23.35455705266789</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>208.0055861732533</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>46.58646588932503</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.553842565068821</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>234.873980137243</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>101.717706569126</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>57.4290852596889</v>
+        <v>53.87467807705883</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>129.6781866221426</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>68.19029374363589</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>334.5817096732204</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>102.575648756399</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>334.5817096732195</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>246.0896730001184</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>144.2406440115529</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>270.7706607858352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>57.70416378283698</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>22.96159132124599</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.889865504349</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.977907210731</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C2" t="n">
-        <v>925.0153902703189</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D2" t="n">
-        <v>566.7496916635685</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E2" t="n">
-        <v>180.9614390653242</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.577747274852</v>
+        <v>484.1848034624637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>937.824783143196</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>937.824783143196</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>709.6016900172199</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>474.4495817854772</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>227.4165187944242</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>312.1641695407617</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>843.9662583320081</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>578.0652139363849</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>578.0652139363849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1521.073833303755</v>
+        <v>312.1641695407617</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>195.5123919972604</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.7960311703076</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C7" t="n">
-        <v>291.7960311703076</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D7" t="n">
-        <v>141.6793917579719</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="V8" t="n">
-        <v>2012.400522021833</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="W8" t="n">
-        <v>1659.631866751719</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>196.3935804494339</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T10" t="n">
-        <v>536.6170209242687</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1626.94664591678</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1575.27830217458</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1189.490049576336</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>778.5041447867286</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5041,7 +5041,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2609.186403181609</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2390.551736153672</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2390.551736153672</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2390.551736153672</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2390.551736153672</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2017.085977892592</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1626.94664591678</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240415</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1097.103316533935</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C14" t="n">
-        <v>1097.103316533935</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D14" t="n">
-        <v>1097.103316533935</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E14" t="n">
-        <v>711.3150639356909</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>300.3291591460833</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,10 +5278,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224075</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W14" t="n">
-        <v>2247.308246834948</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X14" t="n">
-        <v>1873.842488573869</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y14" t="n">
-        <v>1483.703156598057</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5360,40 +5360,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5442,43 +5442,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y16" t="n">
         <v>53.94298182036445</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1661.975310878425</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C17" t="n">
-        <v>1293.012793938013</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>934.7470953312629</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>934.7470953312629</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>523.7611905416554</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>105.7973824398423</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>105.7973824398423</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5548,19 +5548,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W17" t="n">
-        <v>2048.575150942547</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X17" t="n">
-        <v>2048.575150942547</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y17" t="n">
-        <v>2048.575150942547</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5597,40 +5597,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C19" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y19" t="n">
-        <v>507.3364050629043</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1464.687040303175</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C20" t="n">
-        <v>1095.724523362763</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="D20" t="n">
-        <v>737.4588247560125</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628376</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.752638628376</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.752638628376</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X20" t="n">
-        <v>1851.286880367296</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y20" t="n">
-        <v>1851.286880367296</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>688.885551920185</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C22" t="n">
-        <v>519.9493689922781</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D22" t="n">
-        <v>369.8327295799423</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799423</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>688.885551920185</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>688.885551920185</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>688.885551920185</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X22" t="n">
-        <v>688.885551920185</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y22" t="n">
-        <v>688.885551920185</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1540.921096014692</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C23" t="n">
-        <v>1540.921096014692</v>
+        <v>1425.720364436188</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1067.454665829438</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>681.6664132311935</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6022,19 +6022,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014692</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X23" t="n">
-        <v>1540.921096014692</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y23" t="n">
-        <v>1540.921096014692</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6177,22 +6177,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U25" t="n">
-        <v>490.2500993552354</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V25" t="n">
-        <v>490.2500993552354</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W25" t="n">
-        <v>200.8329293182748</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X25" t="n">
-        <v>200.8329293182748</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>991.2778500677825</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C26" t="n">
-        <v>622.3153331273709</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="D26" t="n">
-        <v>264.0496345206204</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>929.9497309636286</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>518.9638261740211</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>101.0000180722079</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>101.0000180722079</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V26" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W26" t="n">
-        <v>1364.743608328862</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X26" t="n">
-        <v>991.2778500677825</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y26" t="n">
-        <v>991.2778500677825</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.54282279518145</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C28" t="n">
-        <v>58.54282279518145</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="D28" t="n">
-        <v>58.54282279518145</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>156.7517573047575</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036446</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5323736931988</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>58.54282279518145</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.54282279518145</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>471.9067899221776</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>471.9067899221776</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>471.9067899221776</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>471.9067899221776</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1248.645961962111</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>858.5066299862995</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6554,10 +6554,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>898.8784838925781</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C32" t="n">
-        <v>529.9159669521664</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D32" t="n">
-        <v>471.9067899221776</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X32" t="n">
-        <v>1289.01781586839</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y32" t="n">
-        <v>898.8784838925781</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6885,16 +6885,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>597.1409169113407</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U34" t="n">
-        <v>659.249899616903</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V34" t="n">
-        <v>659.249899616903</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W34" t="n">
         <v>369.8327295799424</v>
@@ -6916,16 +6916,16 @@
         <v>1546.94416071721</v>
       </c>
       <c r="C35" t="n">
-        <v>1546.94416071721</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D35" t="n">
-        <v>1188.678462110459</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E35" t="n">
-        <v>802.8902095122148</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F35" t="n">
-        <v>391.9043047226073</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6937,13 +6937,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -7016,16 +7016,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>369.8327295799424</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C37" t="n">
-        <v>369.8327295799424</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D37" t="n">
-        <v>369.8327295799424</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036446</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="U37" t="n">
-        <v>624.5172177858293</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V37" t="n">
-        <v>369.8327295799424</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W37" t="n">
-        <v>369.8327295799424</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X37" t="n">
-        <v>369.8327295799424</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y37" t="n">
-        <v>369.8327295799424</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1188.678462110458</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>802.8902095122139</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>391.9043047226064</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7216,10 +7216,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7368,16 +7368,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1494.154169929768</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C41" t="n">
-        <v>1125.191652989356</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D41" t="n">
-        <v>766.9259543826058</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>713.5043138828189</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>302.5184090932113</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2551.451470804533</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2220.388583460962</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1867.619928190848</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>1494.154169929768</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1494.154169929768</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7596,19 +7596,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V43" t="n">
-        <v>259.1560728187101</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
         <v>53.94298182036445</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>625.3727659270879</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C44" t="n">
-        <v>625.3727659270879</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D44" t="n">
-        <v>625.3727659270879</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E44" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.48357412947</v>
+        <v>2286.093401624031</v>
       </c>
       <c r="X44" t="n">
-        <v>1289.01781586839</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="Y44" t="n">
-        <v>898.8784838925781</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>711.0685140000211</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U46" t="n">
-        <v>711.0685140000211</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V46" t="n">
-        <v>456.3840257941342</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W46" t="n">
-        <v>456.3840257941342</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="X46" t="n">
-        <v>456.3840257941342</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>246.1363086691492</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>333.3585268236793</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>118.4674613291452</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>256.677702939222</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>124.6736186875539</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>167.3229869997864</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>281.1277730692013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>131.5145050451678</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401877</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.7886034666494</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>344.4182670191444</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>67.23520518655334</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>59.5749168083378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>8.114410708933576</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,22 +22986,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>242.6038997676065</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>117.5236630296565</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>35.43826180874041</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>20.39139144845171</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>87.33265185072423</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>169.8618544683333</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>117.8993512672867</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>100.5954596315782</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>222.6064897943309</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.4429748595356</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23940,13 +23940,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>126.0327064945689</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>296.5779771506795</v>
       </c>
       <c r="E20" t="n">
-        <v>119.0338555867652</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>247.430876278591</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>237.0966106479285</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>199.2140186657857</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>262.9273171893099</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>201.7061255516594</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>173.9247838990084</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>105.3448503555362</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>141.8801200815003</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950175</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,10 +24651,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,19 +24733,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>134.857120541226</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>44.71625607744319</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24891,7 +24891,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>297.253956360994</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>82.46735232787634</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.0915804983418</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>79.20246034757463</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>54.65715509799979</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>183.7062254855788</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757548</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>24.3793674507431</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>167.6944970206766</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>106.9835234967364</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25836,22 +25836,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>56.69292621882477</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>83.36203824822886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>111.9631808776454</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>158.7441565748208</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.4723713253232</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>195.2556734456699</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769512.6051115737</v>
+        <v>451773.1829701429</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769512.6051115737</v>
+        <v>467445.7869376002</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>769512.6051115735</v>
+        <v>477458.0775964577</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260237.3490141815</v>
+        <v>150588.1755146546</v>
       </c>
       <c r="C2" t="n">
-        <v>260237.3490141816</v>
+        <v>156006.1355264978</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141817</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="E2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="F2" t="n">
         <v>260237.3490141817</v>
@@ -26337,10 +26337,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="K2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141816</v>
@@ -26355,7 +26355,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214117</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>63988.37154589879</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.454491750077</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.7776788445</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18228.92756966326</v>
+        <v>16922.92270143587</v>
       </c>
       <c r="C4" t="n">
-        <v>18228.92756966326</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="D4" t="n">
-        <v>18228.92756966326</v>
+        <v>16991.84893966587</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-436886.9495792548</v>
+        <v>-1626.633576199703</v>
       </c>
       <c r="C6" t="n">
-        <v>153080.9296352896</v>
+        <v>64082.47118295611</v>
       </c>
       <c r="D6" t="n">
-        <v>153080.9296352897</v>
+        <v>75828.38637736616</v>
       </c>
       <c r="E6" t="n">
-        <v>186708.5296352897</v>
+        <v>-202047.1909072333</v>
       </c>
       <c r="F6" t="n">
-        <v>186708.5296352898</v>
+        <v>192170.102006527</v>
       </c>
       <c r="G6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
       <c r="H6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
       <c r="I6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
       <c r="J6" t="n">
-        <v>10285.31044269672</v>
+        <v>128181.7304606282</v>
       </c>
       <c r="K6" t="n">
-        <v>186708.5296352897</v>
+        <v>187362.6475147769</v>
       </c>
       <c r="L6" t="n">
-        <v>186708.5296352897</v>
+        <v>188901.5634119454</v>
       </c>
       <c r="M6" t="n">
-        <v>186708.5296352896</v>
+        <v>92954.32432768239</v>
       </c>
       <c r="N6" t="n">
-        <v>186708.5296352896</v>
+        <v>192170.102006527</v>
       </c>
       <c r="O6" t="n">
-        <v>186708.5296352897</v>
+        <v>192170.102006527</v>
       </c>
       <c r="P6" t="n">
-        <v>186708.5296352898</v>
+        <v>192170.1020065269</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.01338268678962</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.02126071912534</v>
+      </c>
+      <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,10 +26807,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233573</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>244.5627323611426</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052437</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>203.7667864659613</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>144.9277431142228</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L24" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
